--- a/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级辐射防护与核安全班.xlsx
+++ b/2022级/naive_all_d1_0.2_d2_0.4_d3_0.6_processed_2022级辐射防护与核安全班.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1508,7 +1508,7 @@
         <v>88</v>
       </c>
       <c r="R18" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1640,7 +1640,7 @@
         <v>16.5</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
@@ -1682,7 +1682,7 @@
         <v>86</v>
       </c>
       <c r="R21" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1872,7 +1872,7 @@
         <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
         <v>6.5</v>
@@ -1914,7 +1914,7 @@
         <v>78</v>
       </c>
       <c r="R25" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -2394,7 +2394,7 @@
         <v>16.5</v>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
         <v>14</v>
@@ -2418,7 +2418,7 @@
         <v>27</v>
       </c>
       <c r="L34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M34" t="n">
         <v>12.8</v>
@@ -2436,7 +2436,7 @@
         <v>90</v>
       </c>
       <c r="R34" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -2495,6 +2495,230 @@
       </c>
       <c r="R35" t="n">
         <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>李海燕</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>28</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>24</v>
+      </c>
+      <c r="L36" t="n">
+        <v>18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="P36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>马懿行</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>28</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>16</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>许嘉琪</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>28</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>18</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="P38" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>王宇航</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>28</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>30</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>16</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
